--- a/biology/Médecine/Réseau_universitaire_intégré_de_santé_et_de_services_sociaux/Réseau_universitaire_intégré_de_santé_et_de_services_sociaux.xlsx
+++ b/biology/Médecine/Réseau_universitaire_intégré_de_santé_et_de_services_sociaux/Réseau_universitaire_intégré_de_santé_et_de_services_sociaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_universitaire_int%C3%A9gr%C3%A9_de_sant%C3%A9_et_de_services_sociaux</t>
+          <t>Réseau_universitaire_intégré_de_santé_et_de_services_sociaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un réseau universitaire intégré de santé et de services sociaux (RUISSS) est, au Québec, un regroupement d'établissements de soins de santé et de services sociaux autour d'une faculté universitaire de médecine. Il y existe un réseau pour chaque faculté de médecine et ceux-ci couvrent, dans leur ensemble, l'entièreté du territoire québécois. Les quatre universités ayant en leur sein une faculté de médecine se partagent donc le territoire, soit l'Université Laval, l'Université McGill, l'Université de Montréal et l'Université de Sherbrooke[1].
-Les réseaux universitaires intégrés de santé (RUIS) sont créés en 2003[2]. En 2017, leur concept est élargi, et on y ajoute la mention « et de services sociaux »[2]. Le rôle des RUISSS est détaillé dans la Loi sur les services de santé et les services sociaux[3]. Globalement, ceux-ci servent à favoriser la concertation, la complémentarité et l'intégration des soins, d'enseignement et de recherche des établissements de santé situés dans leur territoire[1]. Le réseau de 34 établissements de la santé est organisé par le ministère de la Santé et des Services sociaux (MSSS) dans quatre réseaux universitaires intégrés de santé et de services sociaux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un réseau universitaire intégré de santé et de services sociaux (RUISSS) est, au Québec, un regroupement d'établissements de soins de santé et de services sociaux autour d'une faculté universitaire de médecine. Il y existe un réseau pour chaque faculté de médecine et ceux-ci couvrent, dans leur ensemble, l'entièreté du territoire québécois. Les quatre universités ayant en leur sein une faculté de médecine se partagent donc le territoire, soit l'Université Laval, l'Université McGill, l'Université de Montréal et l'Université de Sherbrooke.
+Les réseaux universitaires intégrés de santé (RUIS) sont créés en 2003. En 2017, leur concept est élargi, et on y ajoute la mention « et de services sociaux ». Le rôle des RUISSS est détaillé dans la Loi sur les services de santé et les services sociaux. Globalement, ceux-ci servent à favoriser la concertation, la complémentarité et l'intégration des soins, d'enseignement et de recherche des établissements de santé situés dans leur territoire. Le réseau de 34 établissements de la santé est organisé par le ministère de la Santé et des Services sociaux (MSSS) dans quatre réseaux universitaires intégrés de santé et de services sociaux.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_universitaire_int%C3%A9gr%C3%A9_de_sant%C3%A9_et_de_services_sociaux</t>
+          <t>Réseau_universitaire_intégré_de_santé_et_de_services_sociaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>RUISSS de l'Université de Montréal</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Au point de vue des services, le Réseau universitaire intégré de santé et de services sociaux de l'Université de Montréal (RUISSS de l'UdeM) comprend les établissements suivants[2] :
-Centre intégré universitaire de santé et de services sociaux (CIUSSS) de la Mauricie-et-du-Centre-du-Québec (partagé avec le RUISSS de l'Université de Sherbrooke[4])
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Au point de vue des services, le Réseau universitaire intégré de santé et de services sociaux de l'Université de Montréal (RUISSS de l'UdeM) comprend les établissements suivants :
+Centre intégré universitaire de santé et de services sociaux (CIUSSS) de la Mauricie-et-du-Centre-du-Québec (partagé avec le RUISSS de l'Université de Sherbrooke)
 Centre intégré universitaire de santé et de services sociaux (CIUSSS) de l'Est-de-l'Île-de-Montréal
 Centre intégré universitaire de santé et de services sociaux (CIUSSS) du Centre-Sud-de-l'Île-de-Montréal
 Centre intégré universitaire de santé et de services sociaux (CIUSSS) du Nord-de-l'Île-de-Montréal
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_universitaire_int%C3%A9gr%C3%A9_de_sant%C3%A9_et_de_services_sociaux</t>
+          <t>Réseau_universitaire_intégré_de_santé_et_de_services_sociaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,9 +569,11 @@
           <t>RUISSS de l'Université Laval</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Au point de vue des services, le Réseau universitaire intégré de santé et de services sociaux de l'Université Laval (RUISSS UL) comprend les établissements suivants[5],[2] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Au point de vue des services, le Réseau universitaire intégré de santé et de services sociaux de l'Université Laval (RUISSS UL) comprend les établissements suivants, : 
 Centre intégré universitaire de santé et de services sociaux (CIUSSS) de la Capitale-Nationale
 Centre intégré universitaire de santé et de services sociaux (CIUSSS) du Saguenay–Lac-Saint-Jean
 Centre intégré de santé et de services sociaux (CISSS) de Chaudière-Appalaches
@@ -567,7 +583,7 @@
 Centre intégré de santé et de services sociaux (CISSS) du Bas-Saint-Laurent
 Centre hospitalier universitaire de Québec – Université Laval (CHU de Québec-ULaval)
 Institut universitaire de cardiologie et de pneumologie de Québec – Université Laval (IUCPQ-ULaval)
-Centre régional de santé et de services sociaux (CRSSS) de la Baie-James (partagé avec le RUISSS de l'Université McGill[6])</t>
+Centre régional de santé et de services sociaux (CRSSS) de la Baie-James (partagé avec le RUISSS de l'Université McGill)</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_universitaire_int%C3%A9gr%C3%A9_de_sant%C3%A9_et_de_services_sociaux</t>
+          <t>Réseau_universitaire_intégré_de_santé_et_de_services_sociaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,13 +611,15 @@
           <t>RUISSS de l'Université de Sherbrooke</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Au point de vue des services, le Réseau universitaire intégré de santé et de services de l'Université de Sherbrooke comprend les établissements suivants[7],[2] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Au point de vue des services, le Réseau universitaire intégré de santé et de services de l'Université de Sherbrooke comprend les établissements suivants, : 
 Centre intégré universitaire de santé et de services sociaux (CIUSSS) de l'Estrie - Centre hospitalier universitaire de Sherbrooke
 Centre intégré de santé et de services sociaux (CISSS) de la Montérégie-Est (partagé avec le RUISSS de l'Université de Montréal)
 Centre intégré de santé et de services sociaux (CISSS) de la Montérégie-Centre (partagé avec le RUISSS de l'Université de Montréal)
-Centre intégré universitaire de santé et de services sociaux (CIUSSS) de la Mauricie-et-du-Centre-du-Québec (partagé avec le RUISSS de l'Université de Montréal[4])</t>
+Centre intégré universitaire de santé et de services sociaux (CIUSSS) de la Mauricie-et-du-Centre-du-Québec (partagé avec le RUISSS de l'Université de Montréal)</t>
         </is>
       </c>
     </row>
@@ -611,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_universitaire_int%C3%A9gr%C3%A9_de_sant%C3%A9_et_de_services_sociaux</t>
+          <t>Réseau_universitaire_intégré_de_santé_et_de_services_sociaux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,15 +647,17 @@
           <t>RUISSS de l'Université McGill</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Au point de vue des services, le Réseau universitaire intégré de santé et de services sociaux de l'Université McGill (RUISSS McGill) comprend les établissements suivants[8],[2] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Au point de vue des services, le Réseau universitaire intégré de santé et de services sociaux de l'Université McGill (RUISSS McGill) comprend les établissements suivants, : 
 Centre intégré de santé et de services sociaux (CISSS) de l'Outaouais
 Centre intégré de santé et de services sociaux (CISSS) de l'Abitibi-Témiscamingue
 Centre intégré de santé et de services sociaux (CISSS) de la Montérégie-Ouest
 Centre intégré universitaire de santé et de services sociaux (CIUSSS) de l'Ouest-de-l'Île-de-Montréal
 Centre intégré universitaire de santé et de services sociaux (CIUSSS) du Centre-Ouest-de-l'Île-de-Montréal
-Centre régional de santé et de services sociaux (CRSSS) de la Baie-James (partagé avec le RUISSS de l'Université Laval[6])
+Centre régional de santé et de services sociaux (CRSSS) de la Baie-James (partagé avec le RUISSS de l'Université Laval)
 Régie régionale de la santé et des services sociaux du Nunavik
 Conseil Cri de la santé et des services sociaux de la Baie-James
 Centre universitaire de santé McGill (CUSM)</t>
